--- a/outputs/KEYWEST2.xlsx
+++ b/outputs/KEYWEST2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The Syllabus page is clearly indicated in the left pane and mentioned multiple times in the main content area as a crucial step for understanding the course, including Week 1 tasks and deadlines. This aligns with Abi's motivation to accomplish tasks and the preference for a comprehensive information processing style, as the syllabus is likely to contain detailed information regarding the course structure and deadlines.</t>
+Facets: Motivations, Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely consider the Syllabus an essential step to gather all necessary information about Week 1 and its deadlines.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The page provides clear instructions and emphasizes the importance of reading the syllabus. The Syllabus link is prominently displayed in the left pane and is also mentioned multiple times in the main content, making it easy for Abi to understand what to do at this step. This aligns with Abi's motivation to accomplish tasks and their preference for a comprehensive information processing style, as the instructions guide Abi effectively toward the next action.</t>
+Facets: Motivations, Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather necessary information. The page is straightforward and provides clear guidance, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After clicking on the "Syllabus" link, Abi will land on a page that displays the course syllabus, including a detailed weekly schedule with specific deadlines and tasks for each week. This provides comprehensive information about what needs to be done during Week 1 and the corresponding deadlines, aligning with Abi's motivation to complete tasks and their preference for a comprehensive information processing style. The clear and structured layout of the information will also help Abi feel confident that they are making progress toward their goal.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as the page provides all the necessary information about Week 1 activities and deadlines. Abi will know she is making progress toward her goal because the page directly addresses her need to understand what to do during Week 1 and the associated deadlines.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The page Abi lands on after clicking "Syllabus" includes a detailed weekly schedule with clear information about activities and deadlines for each week. This aligns with Abi's goal of figuring out what to do during Week 1 and understanding the deadlines. The comprehensive layout of the syllabus and the explicit listing of weekly tasks and deadlines provide the necessary information, fitting Abi's motivation to complete tasks and their preference for comprehensive information processing.</t>
+Facets: Motivations, Information Processing Style
+Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines an essential step toward understanding what to do during Week 1 and meeting the deadlines. The page directly addresses her need for detailed information, making it a logical step in achieving her overall use case.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The page provides a clear layout with the "Course Summary" section immediately visible above the detailed weekly schedule. Abi, motivated to understand the activities and deadlines for Week 1, will recognize that scrolling down to this section will provide the comprehensive information needed. The structure of the syllabus page aligns well with Abi's preference for a thorough information processing style, ensuring that they can easily find and read through the relevant details.</t>
+Facets: Information Processing Style, Motivations
+Why: The page is well-structured and clearly labeled, with the "Course Summary" and "Syllabus – Weekly schedule" sections prominently displayed. Abi, who prefers a comprehensive information processing style, will likely scroll down to read through the detailed schedule. The page provides clear and relevant information about the activities and deadlines, aligning with Abi's motivation to accomplish tasks and gather all necessary information.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After scrolling down and reading through the "Course Summary" and the "Syllabus – Weekly schedule," Abi will find detailed information on what is due during Week 1, including specific readings and project tasks. This detailed breakdown ensures that Abi can clearly see the activities and deadlines for Week 1, confirming that they are making progress toward their goal. The structured presentation of information will help Abi feel confident that they have done the right thing and have obtained all the necessary details. This aligns with Abi's motivations to complete tasks and their preference for comprehensive information processing.</t>
+Facets: Motivations, Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through it, Abi will see a detailed weekly schedule that includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as the page provides all the necessary information about Week 1 activities and deadlines. Abi will know she is making progress toward her goal because the page directly addresses her need to understand what to do during Week 1 and the associated deadlines.</t>
         </is>
       </c>
     </row>

--- a/outputs/KEYWEST2.xlsx
+++ b/outputs/KEYWEST2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
+Why: The Syllabus page is explicitly mentioned in the course introduction text as a crucial step to begin the course. It is highlighted that reading the syllabus is important for understanding the course structure and deadlines. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information to understand what to do during Week 1 and the deadlines.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The clear labeling and instructions make it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read through the syllabus. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information. Additionally, the clear instruction helps mitigate any potential issues with ABI's lower computer self-efficacy, making her confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides clear information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the detailed schedule and deadlines, confirming that she is making progress toward her goal.</t>
+Why: After clicking "Syllabus" on the left pane, ABI lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style, as she will be able to see the specific readings and projects due for Week 1, confirming that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines.</t>
+Why: The page titled "Course Syllabus" includes a detailed "Syllabus – Weekly schedule" section that outlines the activities and deadlines for each week. This aligns with ABI's motivation to understand what to do during Week 1 and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward achieving her overall goal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all relevant details about the activities and deadlines. The page layout and headings make it clear what information is available, guiding Abi to take this action.</t>
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. ABI, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she will want to gather all the necessary details about the activities and deadlines. The page layout and content are straightforward, making it easy for ABI to know what to do next.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This clear and organized presentation of information aligns with Abi's motivation to find out what to do during Week 1 and her comprehensive information processing style. She will know she is making progress toward her goal and will have all the information she needs about the activities and deadlines for Week 1.</t>
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," ABI will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with her motivation to find out what to do during Week 1 and her comprehensive information processing style, as she will be able to gather all the necessary details about the activities and deadlines. The clear and structured presentation of information will confirm to ABI that she is making progress toward her goal and has obtained the information she needs.</t>
         </is>
       </c>
     </row>
